--- a/sheets/SWOT.xlsx
+++ b/sheets/SWOT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Internal Factors</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>Limited work area</t>
-  </si>
-  <si>
-    <t>Column1</t>
   </si>
   <si>
     <t>External Factors</t>
@@ -159,13 +156,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -191,13 +194,13 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -205,34 +208,144 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -535,30 +648,30 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection sqref="A1:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" style="2" customWidth="1"/>
-    <col min="2" max="3" width="25.7109375" style="2" customWidth="1"/>
-    <col min="4" max="8" width="16.7109375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="19.42578125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="25.7109375" style="1" customWidth="1"/>
+    <col min="4" max="8" width="16.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -568,8 +681,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -579,8 +692,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -590,8 +703,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -602,7 +715,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -613,7 +726,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -623,8 +736,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -634,71 +747,75 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:3" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="3" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="3" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="3" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="3" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
